--- a/Output/Supplement/EdgeWeightsExcel_half.xlsx
+++ b/Output/Supplement/EdgeWeightsExcel_half.xlsx
@@ -1116,11 +1116,11 @@
         <v>0.29665924724257</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0615239564526137</v>
+        <v>-0.0834508597522578</v>
       </c>
       <c r="O2"/>
       <c r="P2" t="n">
-        <v>0.063214306936374</v>
+        <v>0.0632143069363741</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>0.0615663207519539</v>
+        <v>0.061566320751954</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1190,13 +1190,11 @@
         <v>0.196262184691042</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="n">
-        <v>-0.019016102999575</v>
-      </c>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>0.166244571951061</v>
+        <v>0.232884899991254</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -1204,7 +1202,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4" t="n">
-        <v>-0.0781616243603973</v>
+        <v>-0.0781616243603974</v>
       </c>
       <c r="U4"/>
       <c r="V4"/>
@@ -1266,16 +1264,16 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>0.0870586000876809</v>
+        <v>0.087058600087681</v>
       </c>
       <c r="M6" t="n">
         <v>0.085565170216615</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.189570550586331</v>
+        <v>-0.258714170229548</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0859495875959825</v>
+        <v>-0.0859495875959826</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -1284,7 +1282,7 @@
       </c>
       <c r="S6"/>
       <c r="T6" t="n">
-        <v>0.0847372190075983</v>
+        <v>0.0847372190075982</v>
       </c>
       <c r="U6" t="n">
         <v>0.119100351553242</v>
@@ -1293,7 +1291,7 @@
         <v>-0.0367049375696989</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0388629662038809</v>
+        <v>0.0388629662038811</v>
       </c>
       <c r="X6" t="n">
         <v>0.16818455811866</v>
@@ -1313,7 +1311,7 @@
         <v>0.0492865754816253</v>
       </c>
       <c r="I7" t="n">
-        <v>0.030650942251493</v>
+        <v>0.0306509422514931</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
@@ -1324,7 +1322,7 @@
         <v>0.118733464301797</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0418816208466254</v>
+        <v>-0.063200163544826</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="n">
@@ -1337,20 +1335,20 @@
         <v>0.0294270276917267</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0208964642886541</v>
+        <v>0.0363978281694252</v>
       </c>
       <c r="T7" t="n">
         <v>0.0400835890317947</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0721007956383388</v>
+        <v>0.0721007956383387</v>
       </c>
       <c r="V7"/>
       <c r="W7" t="n">
         <v>-0.0524321209983798</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0817531575855365</v>
+        <v>-0.0817531575855364</v>
       </c>
     </row>
     <row r="8">
@@ -1385,7 +1383,7 @@
         <v>-0.19618131296184</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0553239051482225</v>
+        <v>-0.0553239051482226</v>
       </c>
       <c r="X8" t="n">
         <v>-0.0549132544269569</v>
@@ -1413,10 +1411,12 @@
       <c r="M9" t="n">
         <v>0.0416223429306809</v>
       </c>
-      <c r="N9"/>
+      <c r="N9" t="n">
+        <v>0.0291047514495705</v>
+      </c>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>-0.0186114817250302</v>
+        <v>-0.0186114817250301</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0426862487855902</v>
@@ -1429,7 +1429,7 @@
         <v>0.0993525900439889</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0331350252051728</v>
+        <v>0.0331350252051727</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1461,7 +1461,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10" t="n">
-        <v>-0.0840801633464389</v>
+        <v>-0.0840801633464388</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1482,15 +1482,15 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-0.0524279898675566</v>
+        <v>-0.0783544291003575</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>0.0659169355189084</v>
+        <v>0.0659169355189085</v>
       </c>
       <c r="R11" t="n">
-        <v>0.118721450048689</v>
+        <v>0.11872145004869</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -1521,10 +1521,12 @@
       <c r="M12" t="n">
         <v>0.0422431341027043</v>
       </c>
-      <c r="N12"/>
+      <c r="N12" t="n">
+        <v>-0.076851574084693</v>
+      </c>
       <c r="O12"/>
       <c r="P12" t="n">
-        <v>-0.0323858095864364</v>
+        <v>-0.0323858095864363</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1555,7 +1557,7 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>-0.0448132214556739</v>
+        <v>-0.0448132214556738</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1568,7 +1570,7 @@
         <v>0.120845888474301</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0616515767935342</v>
+        <v>0.0616515767935341</v>
       </c>
     </row>
     <row r="14">
@@ -1589,27 +1591,31 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0737061796350753</v>
+        <v>0.100492379530509</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.104212791917457</v>
+        <v>-0.139361451635619</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0628828034010385</v>
+        <v>0.0935413549099485</v>
       </c>
       <c r="R14"/>
       <c r="S14" t="n">
-        <v>-0.0257414642037638</v>
+        <v>-0.0529732654576609</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0300717163200668</v>
+        <v>-0.0416290174555944</v>
       </c>
       <c r="U14"/>
-      <c r="V14"/>
+      <c r="V14" t="n">
+        <v>-0.0525548782888436</v>
+      </c>
       <c r="W14" t="n">
-        <v>0.0956439526673278</v>
-      </c>
-      <c r="X14"/>
+        <v>0.136649773846829</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0547294085541452</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1669,7 +1675,7 @@
       </c>
       <c r="R16"/>
       <c r="S16" t="n">
-        <v>0.0343708445631814</v>
+        <v>0.0496727094453582</v>
       </c>
       <c r="T16"/>
       <c r="U16"/>
@@ -1705,7 +1711,7 @@
         <v>-0.298433253076013</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0816323404835728</v>
+        <v>0.124867343969996</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
@@ -1715,9 +1721,7 @@
       <c r="W17" t="n">
         <v>0.0368937514232028</v>
       </c>
-      <c r="X17" t="n">
-        <v>-0.0282993978331405</v>
-      </c>
+      <c r="X17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1741,13 +1745,13 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18" t="n">
-        <v>0.0640820279407426</v>
+        <v>0.0897017985502244</v>
       </c>
       <c r="T18" t="n">
         <v>0.174797727071569</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0670871139782409</v>
+        <v>0.067087113978241</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -1776,14 +1780,18 @@
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="n">
-        <v>0.0166598098163706</v>
+        <v>0.0250991888540529</v>
       </c>
       <c r="U19"/>
       <c r="V19" t="n">
-        <v>0.0243880849707773</v>
-      </c>
-      <c r="W19"/>
-      <c r="X19"/>
+        <v>0.0401252284369804</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0206516373544459</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.0299059705324472</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
